--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3859.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.94171036641194</v>
+        <v>3.816235780715942</v>
       </c>
       <c r="B1">
-        <v>3.755350516294699</v>
+        <v>6.017861843109131</v>
       </c>
       <c r="C1">
-        <v>3.981406418113875</v>
+        <v>5.078186511993408</v>
       </c>
       <c r="D1">
-        <v>1.726149594015206</v>
+        <v>5.908387184143066</v>
       </c>
       <c r="E1">
-        <v>0.856327446053068</v>
+        <v>4.096496105194092</v>
       </c>
     </row>
   </sheetData>
